--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A70D5-12BC-41EE-A76C-7BF41C3835B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D024A7-DF76-4272-8AF3-9C2E3135B0BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="8160" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,140 +494,142 @@
     <t>.reverse() method</t>
   </si>
   <si>
+    <t>between strings &amp; lists</t>
+  </si>
+  <si>
+    <t>set split character</t>
+  </si>
+  <si>
+    <t>.join() method</t>
+  </si>
+  <si>
+    <t>Cast String to List</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import Files into Jupyter</t>
+  </si>
+  <si>
+    <t>Files import, open &amp; read</t>
+  </si>
+  <si>
+    <t>Open File in Read Mode</t>
+  </si>
+  <si>
+    <t>.read() a number of characters</t>
+  </si>
+  <si>
+    <t>using .read() strings</t>
+  </si>
+  <si>
+    <t>File .readlines() and .close() methods</t>
+  </si>
+  <si>
+    <t>.readlines() method</t>
+  </si>
+  <si>
+    <t>.readlines() list return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.close() method</t>
+  </si>
+  <si>
+    <t>File .readline() &amp; .strip() methods</t>
+  </si>
+  <si>
+    <t>.readline() method</t>
+  </si>
+  <si>
+    <t>File .write() &amp; .seek() methods</t>
+  </si>
+  <si>
+    <t>w' or 'w+' modes</t>
+  </si>
+  <si>
+    <t>.seek(0) method</t>
+  </si>
+  <si>
+    <t>.seek() offset &amp; whence</t>
+  </si>
+  <si>
+    <t>writable modes</t>
+  </si>
+  <si>
+    <t>writing to a file</t>
+  </si>
+  <si>
+    <t>Required Final Code Description</t>
+  </si>
+  <si>
+    <t>Module 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 번돈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return string information length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return string information find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return string information count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막이 안올라감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막이 잘못올라감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>.sort() method &amp; sorted()</t>
-  </si>
-  <si>
-    <t>between strings &amp; lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.split() method</t>
-  </si>
-  <si>
-    <t>set split character</t>
-  </si>
-  <si>
-    <t>.join() method</t>
-  </si>
-  <si>
-    <t>Cast String to List</t>
-  </si>
-  <si>
-    <t>Module 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Import Files into Jupyter</t>
-  </si>
-  <si>
-    <t>Files import, open &amp; read</t>
-  </si>
-  <si>
-    <t>Open File in Read Mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.read() method</t>
-  </si>
-  <si>
-    <t>.read() a number of characters</t>
-  </si>
-  <si>
-    <t>using .read() strings</t>
-  </si>
-  <si>
-    <t>File .readlines() and .close() methods</t>
-  </si>
-  <si>
-    <t>.readlines() method</t>
-  </si>
-  <si>
-    <t>.readlines() list return</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.close() method</t>
-  </si>
-  <si>
-    <t>File .readline() &amp; .strip() methods</t>
-  </si>
-  <si>
-    <t>.readline() method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.readline() while loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.readline() with .strip()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.strip() method arguments</t>
-  </si>
-  <si>
-    <t>File .write() &amp; .seek() methods</t>
-  </si>
-  <si>
-    <t>w' or 'w+' modes</t>
-  </si>
-  <si>
-    <t>.seek(0) method</t>
-  </si>
-  <si>
-    <t>.seek() offset &amp; whence</t>
-  </si>
-  <si>
-    <t>writable modes</t>
-  </si>
-  <si>
-    <t>writing to a file</t>
-  </si>
-  <si>
-    <t>Required Final Code Description</t>
-  </si>
-  <si>
-    <t>Module 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금까지 번돈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return string information length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return string information find</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return string information count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자막이 안올라감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자막이 잘못올라감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1082,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1164,10 +1166,10 @@
         <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1191,10 +1193,10 @@
         <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1224,10 +1226,10 @@
         <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1251,10 +1253,10 @@
         <v>82</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1278,10 +1280,10 @@
         <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1305,10 +1307,10 @@
         <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1332,10 +1334,10 @@
         <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1362,10 +1364,10 @@
         <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1389,10 +1391,10 @@
         <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1416,10 +1418,10 @@
         <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1443,10 +1445,10 @@
         <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1473,10 +1475,10 @@
         <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1503,10 +1505,10 @@
         <v>82</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1530,10 +1532,10 @@
         <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1557,10 +1559,10 @@
         <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1584,10 +1586,10 @@
         <v>82</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1614,10 +1616,10 @@
         <v>82</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1644,10 +1646,10 @@
         <v>82</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1671,10 +1673,10 @@
         <v>82</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1701,10 +1703,10 @@
         <v>82</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1728,10 +1730,10 @@
         <v>82</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1758,10 +1760,10 @@
         <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1785,10 +1787,10 @@
         <v>82</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1815,10 +1817,10 @@
         <v>82</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1842,10 +1844,10 @@
         <v>82</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1869,10 +1871,10 @@
         <v>82</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1899,10 +1901,10 @@
         <v>82</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1932,7 +1934,7 @@
         <v>82</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K29" s="11"/>
     </row>
@@ -1957,7 +1959,7 @@
         <v>82</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K30" s="11"/>
     </row>
@@ -1982,7 +1984,7 @@
         <v>82</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K31" s="11"/>
     </row>
@@ -2010,7 +2012,7 @@
         <v>82</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K32" s="11"/>
     </row>
@@ -2035,7 +2037,7 @@
         <v>82</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K33" s="11"/>
     </row>
@@ -2063,7 +2065,7 @@
         <v>82</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K34" s="11"/>
     </row>
@@ -2088,7 +2090,7 @@
         <v>82</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K35" s="11"/>
     </row>
@@ -2116,7 +2118,7 @@
         <v>82</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K36" s="11"/>
     </row>
@@ -2147,7 +2149,7 @@
         <v>82</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K37" s="11"/>
     </row>
@@ -2172,7 +2174,7 @@
         <v>82</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K38" s="11"/>
     </row>
@@ -2200,7 +2202,7 @@
         <v>82</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K39" s="11"/>
     </row>
@@ -2225,7 +2227,7 @@
         <v>82</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K40" s="11"/>
     </row>
@@ -2253,7 +2255,7 @@
         <v>82</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K41" s="11"/>
     </row>
@@ -2277,9 +2279,6 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2303,7 +2302,7 @@
         <v>82</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K43" s="11"/>
     </row>
@@ -2331,7 +2330,7 @@
         <v>82</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K44" s="11"/>
     </row>
@@ -2355,9 +2354,6 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2387,7 +2383,7 @@
         <v>82</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K46" s="11"/>
     </row>
@@ -2415,7 +2411,7 @@
         <v>82</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K47" s="11"/>
     </row>
@@ -2443,7 +2439,7 @@
         <v>82</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K48" s="11"/>
     </row>
@@ -2468,7 +2464,7 @@
         <v>82</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K49" s="11"/>
     </row>
@@ -2496,7 +2492,7 @@
         <v>82</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K50" s="11"/>
     </row>
@@ -2522,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K51" s="11"/>
     </row>
@@ -2550,7 +2546,7 @@
         <v>82</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K52" s="11"/>
     </row>
@@ -2581,7 +2577,7 @@
         <v>82</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K53" s="11"/>
     </row>
@@ -2615,7 +2611,7 @@
         <v>82</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K54" s="11"/>
     </row>
@@ -2641,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K55" s="11"/>
     </row>
@@ -2672,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K56" s="11"/>
     </row>
@@ -2698,7 +2694,7 @@
         <v>82</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K57" s="11"/>
     </row>
@@ -2724,7 +2720,7 @@
         <v>82</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K58" s="11"/>
     </row>
@@ -2750,7 +2746,7 @@
         <v>82</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K59" s="11"/>
     </row>
@@ -2778,7 +2774,7 @@
         <v>82</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K60" s="11"/>
     </row>
@@ -2804,7 +2800,7 @@
         <v>82</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K61" s="11"/>
     </row>
@@ -2832,7 +2828,7 @@
         <v>82</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K62" s="11"/>
     </row>
@@ -2858,7 +2854,7 @@
         <v>82</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K63" s="11"/>
     </row>
@@ -2884,7 +2880,7 @@
         <v>82</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K64" s="11"/>
     </row>
@@ -2910,7 +2906,7 @@
         <v>82</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K65" s="11"/>
     </row>
@@ -2936,7 +2932,7 @@
         <v>82</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K66" s="11"/>
     </row>
@@ -2964,7 +2960,7 @@
         <v>82</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K67" s="11"/>
     </row>
@@ -2990,7 +2986,7 @@
         <v>82</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K68" s="11"/>
     </row>
@@ -3002,7 +2998,7 @@
         <v>113</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F69" s="2">
         <v>3</v>
@@ -3018,7 +3014,7 @@
         <v>82</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K69" s="11"/>
     </row>
@@ -3028,7 +3024,7 @@
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F70" s="2">
         <v>2</v>
@@ -3040,9 +3036,6 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3051,7 +3044,7 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F71" s="2">
         <v>4</v>
@@ -3067,7 +3060,7 @@
         <v>82</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K71" s="11"/>
     </row>
@@ -3095,7 +3088,7 @@
         <v>82</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K72" s="11"/>
     </row>
@@ -3126,7 +3119,7 @@
         <v>82</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K73" s="11"/>
     </row>
@@ -3151,7 +3144,7 @@
         <v>82</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K74" s="11"/>
     </row>
@@ -3179,7 +3172,7 @@
         <v>82</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K75" s="11"/>
     </row>
@@ -3207,7 +3200,7 @@
         <v>82</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K76" s="11"/>
     </row>
@@ -3358,7 +3351,7 @@
         <v>82</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K83" s="11"/>
     </row>
@@ -3383,7 +3376,7 @@
         <v>82</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K84" s="11"/>
     </row>
@@ -3408,7 +3401,7 @@
         <v>82</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K85" s="11"/>
     </row>
@@ -3436,7 +3429,7 @@
         <v>82</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K86" s="11"/>
     </row>
@@ -3461,7 +3454,7 @@
         <v>82</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K87" s="11"/>
     </row>
@@ -3486,7 +3479,7 @@
         <v>82</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K88" s="11"/>
     </row>
@@ -3514,7 +3507,7 @@
         <v>82</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K89" s="11"/>
     </row>
@@ -3535,9 +3528,6 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K90" s="11"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3545,7 +3535,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
@@ -3557,9 +3547,6 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K91" s="11"/>
     </row>
     <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3567,10 +3554,10 @@
         <v>91</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
@@ -3582,9 +3569,6 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K92" s="11"/>
     </row>
     <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3592,7 +3576,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F93" s="2">
         <v>2</v>
@@ -3608,7 +3592,7 @@
         <v>82</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -3617,7 +3601,7 @@
         <v>93</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F94" s="2">
         <v>2</v>
@@ -3633,7 +3617,7 @@
         <v>82</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K94" s="11"/>
     </row>
@@ -3642,7 +3626,7 @@
         <v>94</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F95" s="2">
         <v>2</v>
@@ -3658,7 +3642,7 @@
         <v>82</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K95" s="11"/>
     </row>
@@ -3686,7 +3670,7 @@
         <v>82</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K96" s="11"/>
     </row>
@@ -3695,13 +3679,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E97" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
@@ -3717,7 +3701,7 @@
         <v>82</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K97" s="11"/>
     </row>
@@ -3726,7 +3710,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
@@ -3742,7 +3726,7 @@
         <v>82</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K98" s="11"/>
     </row>
@@ -3751,7 +3735,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
@@ -3763,9 +3747,6 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K99" s="11"/>
     </row>
     <row r="100" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3773,7 +3754,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2">
         <v>2</v>
@@ -3789,7 +3770,7 @@
         <v>82</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K100" s="11"/>
     </row>
@@ -3798,7 +3779,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
@@ -3814,7 +3795,7 @@
         <v>82</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K101" s="11"/>
     </row>
@@ -3823,10 +3804,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
@@ -3838,9 +3819,6 @@
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K102" s="11"/>
     </row>
     <row r="103" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3848,7 +3826,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F103" s="2">
         <v>2</v>
@@ -3860,9 +3838,6 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K103" s="11"/>
     </row>
     <row r="104" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3870,7 +3845,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
@@ -3886,7 +3861,7 @@
         <v>82</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K104" s="11"/>
     </row>
@@ -3895,10 +3870,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2">
         <v>2</v>
@@ -3914,7 +3889,7 @@
         <v>82</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K105" s="11"/>
     </row>
@@ -3923,7 +3898,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F106" s="2">
         <v>2</v>
@@ -3935,9 +3910,6 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K106" s="11"/>
     </row>
     <row r="107" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3945,7 +3917,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
@@ -3957,9 +3929,6 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K107" s="11"/>
     </row>
     <row r="108" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3967,7 +3936,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F108" s="2">
         <v>2</v>
@@ -3979,9 +3948,6 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K108" s="11"/>
     </row>
     <row r="109" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3989,10 +3955,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
@@ -4008,7 +3974,7 @@
         <v>82</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K109" s="11"/>
     </row>
@@ -4017,7 +3983,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F110" s="2">
         <v>2</v>
@@ -4033,7 +3999,7 @@
         <v>82</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K110" s="11"/>
     </row>
@@ -4042,7 +4008,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F111" s="2">
         <v>4</v>
@@ -4058,7 +4024,7 @@
         <v>82</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K111" s="11"/>
     </row>
@@ -4067,7 +4033,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
@@ -4083,7 +4049,7 @@
         <v>82</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K112" s="11"/>
     </row>
@@ -4092,7 +4058,7 @@
         <v>112</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F113" s="2">
         <v>2</v>
@@ -4108,7 +4074,7 @@
         <v>82</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K113" s="11"/>
     </row>
@@ -4139,13 +4105,13 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F115" s="2">
         <v>4</v>
@@ -4165,25 +4131,25 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.92982456140350878</v>
+        <v>0.82456140350877194</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>557894.73684210528</v>
+        <v>494736.84210526315</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
@@ -4201,7 +4167,7 @@
       </c>
       <c r="K118" s="1">
         <f>COUNTIF($I$2:$I$115,"x")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D024A7-DF76-4272-8AF3-9C2E3135B0BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50CE12-1FAE-496B-9460-660BA28FCEA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="5760" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="182">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,6 +630,10 @@
   </si>
   <si>
     <t>.strip() method arguments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자막 안올라감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1936,7 +1940,9 @@
       <c r="J29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1961,7 +1967,9 @@
       <c r="J30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1986,7 +1994,9 @@
       <c r="J31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -2014,7 +2024,9 @@
       <c r="J32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -2039,7 +2051,9 @@
       <c r="J33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2067,7 +2081,9 @@
       <c r="J34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -2092,7 +2108,9 @@
       <c r="J35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K35" s="11"/>
+      <c r="K35" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -2120,7 +2138,9 @@
       <c r="J36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -2151,7 +2171,9 @@
       <c r="J37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K37" s="11"/>
+      <c r="K37" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2176,7 +2198,9 @@
       <c r="J38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -2204,7 +2228,9 @@
       <c r="J39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -2229,7 +2255,9 @@
       <c r="J40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K40" s="11"/>
+      <c r="K40" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2257,7 +2285,9 @@
       <c r="J41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2304,7 +2334,9 @@
       <c r="J43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K43" s="11"/>
+      <c r="K43" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -2332,7 +2364,9 @@
       <c r="J44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -2385,7 +2419,9 @@
       <c r="J46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -2413,7 +2449,9 @@
       <c r="J47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -2441,7 +2479,9 @@
       <c r="J48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -2466,7 +2506,9 @@
       <c r="J49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
@@ -2494,7 +2536,9 @@
       <c r="J50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -2520,7 +2564,9 @@
       <c r="J51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="11"/>
+      <c r="K51" s="11" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -2542,12 +2588,6 @@
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2579,7 +2619,9 @@
       <c r="J53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
@@ -4131,7 +4173,7 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.82456140350877194</v>
+        <v>0.81578947368421051</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -4140,7 +4182,7 @@
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>494736.84210526315</v>
+        <v>489473.68421052629</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4155,7 +4197,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
@@ -4173,7 +4215,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>415789.47368421056</v>
+        <v>410526.31578947371</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50CE12-1FAE-496B-9460-660BA28FCEA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CE352-D0B1-49FA-ABAE-A09550D70E40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1512" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="2472" yWindow="1452" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="179">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -601,14 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자막이 안올라감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자막이 잘못올라감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>.sort() method &amp; sorted()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -630,10 +622,6 @@
   </si>
   <si>
     <t>.strip() method arguments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자막 안올라감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1088,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1233,7 +1221,7 @@
         <v>170</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1260,7 +1248,7 @@
         <v>170</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1287,7 +1275,7 @@
         <v>170</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1314,7 +1302,7 @@
         <v>170</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1341,7 +1329,7 @@
         <v>170</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1370,9 +1358,7 @@
       <c r="J9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1397,9 +1383,7 @@
       <c r="J10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1424,9 +1408,7 @@
       <c r="J11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1451,9 +1433,7 @@
       <c r="J12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1481,9 +1461,7 @@
       <c r="J13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1511,9 +1489,7 @@
       <c r="J14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1538,9 +1514,7 @@
       <c r="J15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1565,9 +1539,7 @@
       <c r="J16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1592,9 +1564,7 @@
       <c r="J17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1622,9 +1592,7 @@
       <c r="J18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1652,9 +1620,7 @@
       <c r="J19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1679,9 +1645,7 @@
       <c r="J20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1709,9 +1673,7 @@
       <c r="J21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1736,9 +1698,7 @@
       <c r="J22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1766,9 +1726,7 @@
       <c r="J23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1793,9 +1751,7 @@
       <c r="J24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1823,9 +1779,7 @@
       <c r="J25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1850,9 +1804,7 @@
       <c r="J26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1877,9 +1829,7 @@
       <c r="J27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1907,9 +1857,7 @@
       <c r="J28" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1940,9 +1888,7 @@
       <c r="J29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1967,9 +1913,7 @@
       <c r="J30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1994,9 +1938,7 @@
       <c r="J31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -2024,9 +1966,7 @@
       <c r="J32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -2051,9 +1991,7 @@
       <c r="J33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2081,9 +2019,7 @@
       <c r="J34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -2108,9 +2044,7 @@
       <c r="J35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -2138,9 +2072,7 @@
       <c r="J36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -2171,9 +2103,7 @@
       <c r="J37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2198,9 +2128,7 @@
       <c r="J38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -2228,9 +2156,7 @@
       <c r="J39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -2255,9 +2181,6 @@
       <c r="J40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2285,9 +2208,7 @@
       <c r="J41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2309,6 +2230,12 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
+      <c r="I42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2334,9 +2261,7 @@
       <c r="J43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -2364,9 +2289,7 @@
       <c r="J44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -2388,6 +2311,12 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
+      <c r="I45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2419,9 +2348,7 @@
       <c r="J46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -2449,9 +2376,7 @@
       <c r="J47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -2479,9 +2404,7 @@
       <c r="J48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -2506,9 +2429,7 @@
       <c r="J49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
@@ -2536,9 +2457,7 @@
       <c r="J50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -2564,9 +2483,7 @@
       <c r="J51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -2588,6 +2505,12 @@
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
+      <c r="I52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2619,9 +2542,7 @@
       <c r="J53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
@@ -3577,7 +3498,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
@@ -3599,7 +3520,7 @@
         <v>141</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
@@ -3777,7 +3698,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
@@ -3940,7 +3861,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F106" s="2">
         <v>2</v>
@@ -3959,7 +3880,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
@@ -3978,7 +3899,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F108" s="2">
         <v>2</v>
@@ -4173,7 +4094,7 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.81578947368421051</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -4182,7 +4103,7 @@
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>489473.68421052629</v>
+        <v>505263.1578947368</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4197,7 +4118,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
@@ -4215,7 +4136,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>410526.31578947371</v>
+        <v>426315.78947368421</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CE352-D0B1-49FA-ABAE-A09550D70E40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3175D1-7B1E-4AD4-95EC-6724E5A227DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="1452" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="-7356" yWindow="5436" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="179">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1358,7 +1358,9 @@
       <c r="J9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1383,7 +1385,9 @@
       <c r="J10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1408,7 +1412,9 @@
       <c r="J11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1433,7 +1439,9 @@
       <c r="J12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1461,7 +1469,9 @@
       <c r="J13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1489,7 +1499,9 @@
       <c r="J14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1514,7 +1526,9 @@
       <c r="J15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1539,7 +1553,9 @@
       <c r="J16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1564,7 +1580,9 @@
       <c r="J17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1592,7 +1610,9 @@
       <c r="J18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1620,7 +1640,9 @@
       <c r="J19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1645,7 +1667,9 @@
       <c r="J20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1673,7 +1697,9 @@
       <c r="J21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1698,7 +1724,9 @@
       <c r="J22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1726,7 +1754,9 @@
       <c r="J23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1751,7 +1781,9 @@
       <c r="J24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1779,7 +1811,9 @@
       <c r="J25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1804,7 +1838,9 @@
       <c r="J26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1829,7 +1865,9 @@
       <c r="J27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1857,7 +1895,9 @@
       <c r="J28" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1888,7 +1928,9 @@
       <c r="J29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1913,7 +1955,9 @@
       <c r="J30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1938,7 +1982,9 @@
       <c r="J31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1966,7 +2012,9 @@
       <c r="J32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1991,7 +2039,9 @@
       <c r="J33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2019,7 +2069,9 @@
       <c r="J34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="11"/>
+      <c r="K34" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -2044,7 +2096,9 @@
       <c r="J35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K35" s="11"/>
+      <c r="K35" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -2072,7 +2126,9 @@
       <c r="J36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -2103,7 +2159,9 @@
       <c r="J37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K37" s="11"/>
+      <c r="K37" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2128,7 +2186,9 @@
       <c r="J38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="11"/>
+      <c r="K38" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -2156,7 +2216,9 @@
       <c r="J39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -2181,6 +2243,9 @@
       <c r="J40" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2208,7 +2273,9 @@
       <c r="J41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K41" s="11"/>
+      <c r="K41" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2236,7 +2303,9 @@
       <c r="J42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K42" s="11"/>
+      <c r="K42" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -2261,7 +2330,9 @@
       <c r="J43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K43" s="11"/>
+      <c r="K43" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -2289,7 +2360,9 @@
       <c r="J44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K44" s="11"/>
+      <c r="K44" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -2317,7 +2390,9 @@
       <c r="J45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K45" s="11"/>
+      <c r="K45" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
@@ -2348,7 +2423,9 @@
       <c r="J46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -2376,7 +2453,9 @@
       <c r="J47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -2404,7 +2483,9 @@
       <c r="J48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -2429,7 +2510,9 @@
       <c r="J49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
@@ -2457,7 +2540,9 @@
       <c r="J50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -2483,7 +2568,9 @@
       <c r="J51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="11"/>
+      <c r="K51" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -2511,7 +2598,9 @@
       <c r="J52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="11"/>
+      <c r="K52" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2542,7 +2631,9 @@
       <c r="J53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3175D1-7B1E-4AD4-95EC-6724E5A227DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C3671-DDBC-4167-BD47-EFDAD3541A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7356" yWindow="5436" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="-10776" yWindow="5676" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="180">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -622,6 +622,10 @@
   </si>
   <si>
     <t>.strip() method arguments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어자막이 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1076,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3090,7 +3094,9 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="K70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
@@ -3275,6 +3281,12 @@
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
+      <c r="I77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3297,6 +3309,12 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
+      <c r="I78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K78" s="11"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3335,7 +3353,9 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="K80" s="11"/>
+      <c r="K80" s="11">
+        <v>43874</v>
+      </c>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
@@ -4185,7 +4205,7 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.84210526315789469</v>
+        <v>0.85964912280701755</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -4194,7 +4214,7 @@
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>505263.1578947368</v>
+        <v>515789.4736842105</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4209,7 +4229,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
@@ -4227,7 +4247,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>426315.78947368421</v>
+        <v>436842.10526315792</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88C3671-DDBC-4167-BD47-EFDAD3541A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534C13C0-8C5C-4564-97AD-8F6A1BD3212F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10776" yWindow="5676" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="180">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3353,6 +3353,12 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="I80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K80" s="11">
         <v>43874</v>
       </c>
@@ -4205,7 +4211,7 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.85964912280701755</v>
+        <v>0.86842105263157898</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -4214,7 +4220,7 @@
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>515789.4736842105</v>
+        <v>521052.63157894742</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4229,7 +4235,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
@@ -4247,7 +4253,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>436842.10526315792</v>
+        <v>442105.26315789472</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534C13C0-8C5C-4564-97AD-8F6A1BD3212F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D567D97-3D78-4B1A-80B8-C73015E31F36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="179">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -622,10 +622,6 @@
   </si>
   <si>
     <t>.strip() method arguments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어자막이 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1080,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3094,9 +3090,13 @@
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="K70" s="11" t="s">
-        <v>179</v>
-      </c>
+      <c r="I70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
@@ -3608,6 +3608,12 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
+      <c r="I90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K90" s="11"/>
     </row>
     <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4211,7 +4217,7 @@
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.86842105263157898</v>
+        <v>0.88596491228070173</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -4220,7 +4226,7 @@
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>521052.63157894742</v>
+        <v>531578.94736842101</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4235,7 +4241,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
@@ -4253,7 +4259,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>442105.26315789472</v>
+        <v>452631.57894736843</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>

--- a/파이썬 번역.xlsx
+++ b/파이썬 번역.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunwoo\Desktop\파이썬 영어자막\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aya02\Desktop\파이썬 번역\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D567D97-3D78-4B1A-80B8-C73015E31F36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893A5D8-D121-4CE4-BF26-9DB59AF65FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="21000" xr2:uid="{0F86FE62-8648-4F9F-8CC1-423739E17F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="179">
   <si>
     <t>DEV236x D.SW기초.2-Introduction to Python: Absolute Beginner</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1076,27 +1076,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B82CFC1-80BF-4B3F-9C10-FD190482850E}">
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>94</v>
       </c>
@@ -2667,9 +2667,11 @@
       <c r="J54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K54" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -2693,9 +2695,11 @@
       <c r="J55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K55" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -2724,9 +2728,11 @@
       <c r="J56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K56" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -2750,9 +2756,11 @@
       <c r="J57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K57" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -2776,9 +2784,11 @@
       <c r="J58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K58" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -2802,9 +2812,11 @@
       <c r="J59" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K59" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -2830,9 +2842,11 @@
       <c r="J60" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K60" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -2856,9 +2870,11 @@
       <c r="J61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K61" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -2884,9 +2900,11 @@
       <c r="J62" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K62" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -2910,9 +2928,11 @@
       <c r="J63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K63" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -2936,9 +2956,11 @@
       <c r="J64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K64" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -2962,9 +2984,11 @@
       <c r="J65" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K65" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -2988,9 +3012,11 @@
       <c r="J66" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K66" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -3016,9 +3042,11 @@
       <c r="J67" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K67" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -3042,9 +3070,11 @@
       <c r="J68" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K68" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -3070,9 +3100,11 @@
       <c r="J69" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K69" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -3096,9 +3128,11 @@
       <c r="J70" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K70" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -3122,9 +3156,11 @@
       <c r="J71" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K71" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -3150,9 +3186,11 @@
       <c r="J72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K72" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -3181,9 +3219,11 @@
       <c r="J73" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K73" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -3206,9 +3246,11 @@
       <c r="J74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K74" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>74</v>
       </c>
@@ -3234,9 +3276,11 @@
       <c r="J75" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K75" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -3262,9 +3306,11 @@
       <c r="J76" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K76" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -3287,9 +3333,11 @@
       <c r="J77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K77" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -3315,9 +3363,11 @@
       <c r="J78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K78" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>78</v>
       </c>
@@ -3334,9 +3384,17 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>79</v>
       </c>
@@ -3359,11 +3417,11 @@
       <c r="J80" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K80" s="11">
-        <v>43874</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K80" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>80</v>
       </c>
@@ -3380,9 +3438,17 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>81</v>
       </c>
@@ -3402,9 +3468,17 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>82</v>
       </c>
@@ -3431,11 +3505,13 @@
         <v>82</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -3456,11 +3532,11 @@
         <v>82</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>84</v>
       </c>
@@ -3481,11 +3557,11 @@
         <v>82</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>85</v>
       </c>
@@ -3509,11 +3585,11 @@
         <v>82</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>86</v>
       </c>
@@ -3534,11 +3610,11 @@
         <v>82</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>87</v>
       </c>
@@ -3559,11 +3635,11 @@
         <v>82</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>88</v>
       </c>
@@ -3589,9 +3665,11 @@
       <c r="J89" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K89" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -3614,9 +3692,11 @@
       <c r="J90" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K90" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -3633,9 +3713,17 @@
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -3655,9 +3743,17 @@
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -3678,11 +3774,11 @@
         <v>82</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -3703,11 +3799,11 @@
         <v>82</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>94</v>
       </c>
@@ -3724,15 +3820,12 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="J95" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>95</v>
       </c>
@@ -3758,9 +3851,11 @@
       <c r="J96" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K96" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -3789,9 +3884,11 @@
       <c r="J97" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K97" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>97</v>
       </c>
@@ -3814,9 +3911,11 @@
       <c r="J98" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K98" s="11"/>
-    </row>
-    <row r="99" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K98" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>98</v>
       </c>
@@ -3833,9 +3932,17 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>99</v>
       </c>
@@ -3858,9 +3965,11 @@
       <c r="J100" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K100" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>100</v>
       </c>
@@ -3883,9 +3992,11 @@
       <c r="J101" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K101" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
         <v>101</v>
       </c>
@@ -3905,9 +4016,17 @@
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="K102" s="11"/>
-    </row>
-    <row r="103" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>102</v>
       </c>
@@ -3924,9 +4043,17 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="K103" s="11"/>
-    </row>
-    <row r="104" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <v>103</v>
       </c>
@@ -3949,9 +4076,11 @@
       <c r="J104" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K104" s="11"/>
-    </row>
-    <row r="105" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K104" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>104</v>
       </c>
@@ -3977,9 +4106,11 @@
       <c r="J105" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K105" s="11"/>
-    </row>
-    <row r="106" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K105" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>105</v>
       </c>
@@ -3996,9 +4127,17 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="K106" s="11"/>
-    </row>
-    <row r="107" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <v>106</v>
       </c>
@@ -4015,9 +4154,17 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="K107" s="11"/>
-    </row>
-    <row r="108" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <v>107</v>
       </c>
@@ -4034,9 +4181,17 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="K108" s="11"/>
-    </row>
-    <row r="109" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>108</v>
       </c>
@@ -4062,9 +4217,11 @@
       <c r="J109" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K109" s="11"/>
-    </row>
-    <row r="110" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K109" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>109</v>
       </c>
@@ -4087,9 +4244,11 @@
       <c r="J110" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K110" s="11"/>
-    </row>
-    <row r="111" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K110" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>110</v>
       </c>
@@ -4112,9 +4271,11 @@
       <c r="J111" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K111" s="11"/>
-    </row>
-    <row r="112" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K111" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>111</v>
       </c>
@@ -4137,9 +4298,11 @@
       <c r="J112" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K112" s="11"/>
-    </row>
-    <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K112" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>112</v>
       </c>
@@ -4162,9 +4325,11 @@
       <c r="J113" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K113" s="11"/>
-    </row>
-    <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K113" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -4184,9 +4349,17 @@
         <f t="shared" si="2"/>
         <v>309</v>
       </c>
-      <c r="K114" s="11"/>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>114</v>
       </c>
@@ -4209,24 +4382,32 @@
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="K115" s="11"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B116" s="8">
         <f>COUNTA(I2:I115)/COUNT(B2:B115)</f>
-        <v>0.88596491228070173</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.99122807017543857</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B117" s="10">
         <f>B116*600000</f>
-        <v>531578.94736842101</v>
+        <v>594736.84210526315</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>170</v>
@@ -4238,14 +4419,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H118" s="1">
         <f>COUNTIF($J$2:$J$115,"건우")</f>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I118" s="1">
         <f>COUNTIF($J$2:$J$115,"창훈")</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J118" s="1">
         <f>COUNTIF($J$2:$J$115,"지우")</f>
@@ -4256,14 +4437,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H119" s="10">
         <f t="shared" ref="H119:I119" si="3">H118/114*600000</f>
-        <v>452631.57894736843</v>
+        <v>552631.57894736843</v>
       </c>
       <c r="I119" s="10">
         <f t="shared" si="3"/>
-        <v>57894.73684210526</v>
+        <v>26315.78947368421</v>
       </c>
       <c r="J119" s="10">
         <f>J118/114*600000</f>
